--- a/BAOdev/OntoRatInputFiles/result_dev.xlsx
+++ b/BAOdev/OntoRatInputFiles/result_dev.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Term ID</t>
   </si>
@@ -61,13 +61,28 @@
   </si>
   <si>
     <t>The concentration of compound required to kill 50% of a cell population (i.e., 50% inhibitory concentration in a cytotoxicity assay).</t>
+  </si>
+  <si>
+    <t>TCID50</t>
+  </si>
+  <si>
+    <t>concentration response endpoint</t>
+  </si>
+  <si>
+    <t>50% Tissue Culture Infective Dose (TCID50) is the measure of infectious virus titer. This endpoint dilution assay quantifies the amount of virus required to kill 50% of infected hosts or to produce a cytopathic effect in 50% of inoculated tissue culture cells.</t>
+  </si>
+  <si>
+    <t>BAO_0080002</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002162</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -78,6 +93,18 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -115,10 +142,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -136,8 +165,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,15 +503,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="11" style="1"/>
+    <col min="1" max="6" width="11" style="1"/>
+    <col min="7" max="7" width="31.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="63.75" customHeight="1">
@@ -546,8 +584,37 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
+    <row r="3" spans="1:20" ht="120">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2024</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" s="10">
+        <v>42572</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" location="BAO_0002162"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
